--- a/data/Capricoin/Capricoin20160701.xlsx
+++ b/data/Capricoin/Capricoin20160701.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
